--- a/r5-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T16:28:02+00:00</t>
+    <t>2024-02-12T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
